--- a/ja/basic/Sample_Solver_Basic_7.0.xlsx
+++ b/ja/basic/Sample_Solver_Basic_7.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devel\XLPack\XLPack_70\XLPack\release\sample\ja\basic\Solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Work\XLPack\XLPack_70\XLPack\release\sample\ja\basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F9EE8-29B2-47AB-BB6C-C04765E578BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE5953-CE8C-4C33-BB5E-BA7048247EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8726" yWindow="9" windowWidth="14340" windowHeight="17357" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NLEq1" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="149">
   <si>
     <t>方程式の定義</t>
     <rPh sb="0" eb="3">
@@ -734,116 +734,6 @@
   </si>
   <si>
     <t>R7C4:R16C5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(フーリエ積分)</t>
-    <rPh sb="5" eb="7">
-      <t>セキブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>f(x) = exp(-x^2)*cos(x)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R22C2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R23C2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R23C4:R32C5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(コーシー主値積分)</t>
-    <rPh sb="5" eb="7">
-      <t>シュチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セキブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>f(x) = exp(x)/x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R23C4:R32C6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(端点が特異値の積分)</t>
-    <rPh sb="1" eb="3">
-      <t>タンテン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>トクイチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セキブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>f(x) = ln(x)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R38C2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R39C2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R39C4:R48C6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(振動型関数)</t>
-    <rPh sb="1" eb="3">
-      <t>シンドウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>f(x) = sin(x)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R54C2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R55C2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R55C4:R64C6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>∫w(x)f(x)dx [a, b]</t>
-  </si>
-  <si>
-    <t>∫w(x)f(x)dx [a, b]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>∫w(x)f(x)dx [a, +∞]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -975,7 +865,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,16 +899,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,6 +925,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -1447,7 +1335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,7 +1501,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1926,27 +1820,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="4" max="6" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="6" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +1848,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
@@ -1969,7 +1863,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -1985,7 +1879,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="19">
         <v>0</v>
       </c>
@@ -1994,7 +1888,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2002,49 +1896,49 @@
       <c r="E9" s="19"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="57">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="16"/>
@@ -2059,32 +1953,32 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07AD42C-EB8A-4C84-8C0A-5D999416EE6D}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="4" max="4" width="14.61328125" customWidth="1"/>
-    <col min="5" max="5" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -2092,7 +1986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
@@ -2104,7 +1998,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -2117,13 +2011,13 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2132,8 +2026,8 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="19">
@@ -2141,8 +2035,8 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="19">
@@ -2150,8 +2044,8 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
         <v>129</v>
       </c>
       <c r="D12" s="19">
@@ -2159,134 +2053,30 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="56">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="56">
         <v>1</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
         <v>1</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="20"/>
       <c r="E16" s="16"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="20">
-        <f>EXP(-(B22^2))</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="19">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="19">
-        <v>2</v>
-      </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>4</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="20"/>
-      <c r="E32" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2302,44 +2092,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="4" max="4" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="24"/>
       <c r="D6" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -2349,49 +2139,49 @@
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>155</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>134</v>
       </c>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="56">
         <v>1E-8</v>
       </c>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="57">
         <v>1</v>
       </c>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" s="16"/>
     </row>
   </sheetData>
@@ -2408,32 +2198,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.61328125" customWidth="1"/>
-    <col min="2" max="2" width="14.61328125" customWidth="1"/>
-    <col min="4" max="8" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="4" max="8" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2441,12 +2231,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="23">
-        <v>2</v>
+        <f>A19</f>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>46</v>
@@ -2464,7 +2255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
@@ -2486,7 +2277,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -2499,7 +2290,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -2512,7 +2303,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -2525,7 +2316,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -2538,7 +2329,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -2554,7 +2345,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
@@ -2570,7 +2361,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
@@ -2586,7 +2377,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
@@ -2602,7 +2393,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D17" s="20">
         <v>4.5</v>
       </c>
@@ -2611,7 +2402,10 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
       <c r="D18" s="21">
         <v>5</v>
       </c>
@@ -2620,7 +2414,10 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="55">
+        <v>4</v>
+      </c>
       <c r="D19" s="19">
         <v>5.5</v>
       </c>
@@ -2629,7 +2426,10 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
+        <v>86</v>
+      </c>
       <c r="D20" s="19">
         <v>6</v>
       </c>
@@ -2638,7 +2438,10 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
+        <v>87</v>
+      </c>
       <c r="D21" s="19">
         <v>6.5</v>
       </c>
@@ -2647,7 +2450,10 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
+        <v>65</v>
+      </c>
       <c r="D22" s="19">
         <v>7</v>
       </c>
@@ -2656,9 +2462,9 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>66</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
+        <v>88</v>
       </c>
       <c r="D23" s="19">
         <v>7.5</v>
@@ -2668,9 +2474,9 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>4</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="56">
+        <v>1E-8</v>
       </c>
       <c r="D24" s="19">
         <v>8</v>
@@ -2680,9 +2486,9 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>86</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="57">
+        <v>1</v>
       </c>
       <c r="D25" s="19">
         <v>8.5</v>
@@ -2692,10 +2498,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>87</v>
-      </c>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D26" s="19">
         <v>9</v>
       </c>
@@ -2704,10 +2507,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>65</v>
-      </c>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D27" s="20">
         <v>9.5</v>
       </c>
@@ -2716,10 +2516,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>88</v>
-      </c>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D28" s="21">
         <v>10</v>
       </c>
@@ -2728,69 +2525,63 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>1E-8</v>
-      </c>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D29" s="19"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>1</v>
-      </c>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D30" s="19"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D31" s="19"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D32" s="19"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D33" s="19"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D34" s="19"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D35" s="19"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D36" s="19"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D37" s="20"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -2816,32 +2607,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.61328125" customWidth="1"/>
-    <col min="2" max="2" width="14.61328125" customWidth="1"/>
-    <col min="4" max="12" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="4" max="12" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2849,11 +2640,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="23">
+        <f>A19</f>
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2866,17 +2658,17 @@
         <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
@@ -2902,7 +2694,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -2919,7 +2711,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -2936,7 +2728,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -2953,7 +2745,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -2970,9 +2762,9 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B13" s="18" t="e">
         <f>-B9*(B9^2+B10^2)^(-3/2)</f>
@@ -2990,9 +2782,9 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B14" s="19" t="e">
         <f>-B10*(B9^2+B10^2)^(-3/2)</f>
@@ -3010,9 +2802,9 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B15" s="19"/>
       <c r="D15" s="19">
@@ -3027,9 +2819,9 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B16" s="20"/>
       <c r="D16" s="19">
@@ -3044,7 +2836,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D17" s="20">
         <v>4.5</v>
       </c>
@@ -3057,7 +2849,10 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
       <c r="D18" s="21">
         <v>5</v>
       </c>
@@ -3070,7 +2865,10 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="55">
+        <v>2</v>
+      </c>
       <c r="D19" s="19">
         <v>5.5</v>
       </c>
@@ -3083,7 +2881,10 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
+        <v>143</v>
+      </c>
       <c r="D20" s="19">
         <v>6</v>
       </c>
@@ -3096,7 +2897,10 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
+        <v>144</v>
+      </c>
       <c r="D21" s="19">
         <v>6.5</v>
       </c>
@@ -3109,7 +2913,10 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="D22" s="19">
         <v>7</v>
       </c>
@@ -3122,9 +2929,9 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>66</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
+        <v>145</v>
       </c>
       <c r="D23" s="19">
         <v>7.5</v>
@@ -3138,9 +2945,9 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2</v>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="56">
+        <v>1E-8</v>
       </c>
       <c r="D24" s="19">
         <v>8</v>
@@ -3154,9 +2961,9 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>164</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="57">
+        <v>1</v>
       </c>
       <c r="D25" s="19">
         <v>8.5</v>
@@ -3170,10 +2977,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>165</v>
-      </c>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D26" s="19">
         <v>9</v>
       </c>
@@ -3186,10 +2990,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>72</v>
-      </c>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D27" s="20">
         <v>9.5</v>
       </c>
@@ -3202,10 +3003,7 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>166</v>
-      </c>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D28" s="21">
         <v>10</v>
       </c>
@@ -3218,10 +3016,7 @@
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>1E-8</v>
-      </c>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D29" s="19"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -3232,10 +3027,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>1</v>
-      </c>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" s="19"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -3246,7 +3038,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D31" s="19"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -3257,7 +3049,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" s="19"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -3268,7 +3060,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" s="19"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -3279,7 +3071,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D34" s="19"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -3290,7 +3082,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D35" s="19"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -3301,7 +3093,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D36" s="19"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -3312,7 +3104,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D37" s="20"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -3343,71 +3135,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17">
+        <f>A32</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>116</v>
       </c>
@@ -3417,7 +3210,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>118</v>
       </c>
@@ -3427,21 +3220,21 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>124</v>
       </c>
@@ -3456,7 +3249,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>123</v>
       </c>
@@ -3471,7 +3264,7 @@
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>122</v>
       </c>
@@ -3480,7 +3273,7 @@
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>121</v>
       </c>
@@ -3489,12 +3282,12 @@
       <c r="D19" s="33"/>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -3502,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
@@ -3510,89 +3303,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="16"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="56" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="56" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="56">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3616,45 +3409,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="5" width="10.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17">
+        <f>A20</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>53</v>
       </c>
@@ -3663,7 +3457,7 @@
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>117</v>
       </c>
@@ -3678,7 +3472,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
         <v>99</v>
       </c>
@@ -3693,7 +3487,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="29">
         <f>2*B8</f>
@@ -3706,26 +3500,26 @@
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>27</v>
       </c>
@@ -3738,12 +3532,12 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>23</v>
       </c>
@@ -3752,48 +3546,48 @@
       <c r="D17" s="48"/>
       <c r="E17" s="49"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="56">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3817,27 +3611,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="4" max="6" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="6" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3845,7 +3639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
@@ -3860,7 +3654,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -3876,7 +3670,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="19">
         <v>0</v>
       </c>
@@ -3885,7 +3679,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -3897,49 +3691,49 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="57">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="16"/>
@@ -3958,68 +3752,69 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17">
+        <f>A29</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>108</v>
       </c>
@@ -4028,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>109</v>
       </c>
@@ -4037,7 +3832,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>110</v>
       </c>
@@ -4046,24 +3841,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -4071,7 +3866,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -4079,95 +3874,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="19"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="16"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="56" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="57">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{C10CC324-7B41-49DE-AAA9-3916B24BF820}">
       <formula1>1</formula1>
       <formula2>4</formula2>
@@ -4185,44 +3980,45 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="5" width="10.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17">
+        <f>A17</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -4231,7 +4027,7 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
         <v>34</v>
       </c>
@@ -4240,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -4255,12 +4051,12 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
@@ -4273,12 +4069,12 @@
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>93</v>
       </c>
@@ -4287,48 +4083,48 @@
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="56">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="57">
         <v>1</v>
       </c>
     </row>
@@ -4352,24 +4148,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="3" max="4" width="4.61328125" customWidth="1"/>
-    <col min="5" max="7" width="12.61328125" customWidth="1"/>
-    <col min="8" max="11" width="11.61328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="4" width="4.6328125" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="11" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -4378,7 +4174,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4392,11 +4188,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="17">
+        <f>A24</f>
         <v>14</v>
       </c>
       <c r="D6" s="3"/>
@@ -4416,11 +4213,12 @@
       <c r="J6" s="36"/>
       <c r="K6" s="37"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="17">
+        <f>A25</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
@@ -4448,7 +4246,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -4477,7 +4275,7 @@
       <c r="J8" s="30"/>
       <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -4506,7 +4304,7 @@
       <c r="J9" s="30"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -4535,7 +4333,7 @@
       <c r="J10" s="30"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -4564,7 +4362,7 @@
       <c r="J11" s="30"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -4592,7 +4390,7 @@
       <c r="J12" s="30"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -4623,7 +4421,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -4654,7 +4452,7 @@
       <c r="J14" s="30"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -4683,7 +4481,7 @@
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
@@ -4712,7 +4510,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="34"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -4740,7 +4538,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="28"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
@@ -4769,7 +4567,7 @@
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
@@ -4798,7 +4596,7 @@
       <c r="J19" s="30"/>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
@@ -4827,7 +4625,7 @@
       <c r="J20" s="30"/>
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -4846,7 +4644,7 @@
       <c r="J21" s="30"/>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D22" s="5">
         <v>16</v>
       </c>
@@ -4861,7 +4659,7 @@
       <c r="J22" s="30"/>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -4879,8 +4677,8 @@
       <c r="J23" s="30"/>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="55">
         <v>14</v>
       </c>
       <c r="D24" s="5">
@@ -4897,8 +4695,8 @@
       <c r="J24" s="30"/>
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="56">
         <v>2</v>
       </c>
       <c r="D25" s="5">
@@ -4915,8 +4713,8 @@
       <c r="J25" s="30"/>
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="56" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="6">
@@ -4933,33 +4731,33 @@
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="56">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="57">
         <v>1</v>
       </c>
     </row>
@@ -4989,24 +4787,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" customWidth="1"/>
-    <col min="2" max="5" width="10.61328125" customWidth="1"/>
-    <col min="6" max="7" width="4.61328125" customWidth="1"/>
-    <col min="8" max="10" width="12.61328125" customWidth="1"/>
-    <col min="11" max="14" width="11.61328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="7" width="4.6328125" customWidth="1"/>
+    <col min="8" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="14" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -5015,7 +4813,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5029,11 +4827,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="17">
+        <f>A15</f>
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
@@ -5053,11 +4852,12 @@
       <c r="M6" s="36"/>
       <c r="N6" s="37"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="17">
+        <f>A16</f>
         <v>2</v>
       </c>
       <c r="F7" s="2"/>
@@ -5085,7 +4885,7 @@
       <c r="M7" s="39"/>
       <c r="N7" s="40"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>104</v>
       </c>
@@ -5117,7 +4917,7 @@
       <c r="M8" s="30"/>
       <c r="N8" s="31"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
@@ -5145,7 +4945,7 @@
       <c r="M9" s="30"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -5181,7 +4981,7 @@
       <c r="M10" s="30"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
@@ -5209,7 +5009,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
@@ -5241,7 +5041,7 @@
       <c r="M12" s="30"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G13" s="5">
         <v>7</v>
       </c>
@@ -5266,7 +5066,7 @@
       <c r="M13" s="30"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -5294,8 +5094,8 @@
       <c r="M14" s="30"/>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="55">
         <v>14</v>
       </c>
       <c r="G15" s="5">
@@ -5322,8 +5122,8 @@
       <c r="M15" s="30"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="56">
         <v>2</v>
       </c>
       <c r="G16" s="6">
@@ -5350,8 +5150,8 @@
       <c r="M16" s="33"/>
       <c r="N16" s="34"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
         <v>94</v>
       </c>
       <c r="G17" s="4">
@@ -5378,8 +5178,8 @@
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
         <v>106</v>
       </c>
       <c r="G18" s="5">
@@ -5406,8 +5206,8 @@
       <c r="M18" s="30"/>
       <c r="N18" s="31"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="5">
@@ -5434,8 +5234,8 @@
       <c r="M19" s="30"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
         <v>96</v>
       </c>
       <c r="G20" s="5">
@@ -5462,8 +5262,8 @@
       <c r="M20" s="30"/>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G21" s="5">
@@ -5480,8 +5280,8 @@
       <c r="M21" s="30"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="56">
         <v>1E-8</v>
       </c>
       <c r="G22" s="5">
@@ -5498,8 +5298,8 @@
       <c r="M22" s="30"/>
       <c r="N22" s="31"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="57">
         <v>1</v>
       </c>
       <c r="G23" s="5">
@@ -5516,7 +5316,7 @@
       <c r="M23" s="30"/>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G24" s="5">
         <v>18</v>
       </c>
@@ -5531,7 +5331,7 @@
       <c r="M24" s="30"/>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G25" s="5">
         <v>19</v>
       </c>
@@ -5546,7 +5346,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G26" s="6">
         <v>20</v>
       </c>
@@ -5583,31 +5383,31 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392A350D-7420-48EF-A8D8-3F910862B9C0}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="4" max="6" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="6" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -5615,7 +5415,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
@@ -5630,7 +5430,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5646,7 +5446,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="19">
         <v>0</v>
       </c>
@@ -5655,7 +5455,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -5667,8 +5467,8 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="19">
@@ -5679,8 +5479,8 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="19">
@@ -5691,8 +5491,8 @@
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="19">
@@ -5703,8 +5503,8 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="56">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19">
@@ -5715,395 +5515,29 @@
       </c>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="56">
         <v>1</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="56">
         <v>1</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="57">
         <v>1</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="20">
-        <f>EXP(B22)</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="18">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="18">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>4</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="D38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="20">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="D39" s="18">
-        <v>0</v>
-      </c>
-      <c r="E39" s="18">
-        <v>1</v>
-      </c>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="19">
-        <v>0</v>
-      </c>
-      <c r="E40" s="19">
-        <v>2</v>
-      </c>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="19">
-        <v>0</v>
-      </c>
-      <c r="E41" s="19">
-        <v>10</v>
-      </c>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>6</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>0</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>0</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="D54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="20">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="D55" s="18">
-        <v>0</v>
-      </c>
-      <c r="E55" s="18">
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="19">
-        <v>0</v>
-      </c>
-      <c r="E56" s="19">
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="15"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="15"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="15"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="15"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>10</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="15"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>1</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="15"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>1</v>
-      </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
